--- a/Code/Results/Cases/Case_3_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6065823155748831</v>
+        <v>0.1870330023505744</v>
       </c>
       <c r="C2">
-        <v>0.09057378881638556</v>
+        <v>0.05449972230751854</v>
       </c>
       <c r="D2">
-        <v>0.07844578733930518</v>
+        <v>0.02805384500591401</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3228746276109007</v>
+        <v>0.4879682651166917</v>
       </c>
       <c r="G2">
-        <v>0.2187773953985115</v>
+        <v>0.3307839750832429</v>
       </c>
       <c r="H2">
-        <v>0.2123509163716122</v>
+        <v>0.5062806317259856</v>
       </c>
       <c r="I2">
-        <v>0.1898944100252109</v>
+        <v>0.4035537774460813</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6364525480048826</v>
+        <v>0.2033376887178946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.769915673428045</v>
+        <v>0.8882199994033897</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8578376589995713</v>
+        <v>1.607249860941465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5360806673885605</v>
+        <v>0.1633074569750477</v>
       </c>
       <c r="C3">
-        <v>0.08518290519212002</v>
+        <v>0.05240114611671487</v>
       </c>
       <c r="D3">
-        <v>0.06944019265147716</v>
+        <v>0.02501158307260454</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3068838917535359</v>
+        <v>0.4878043474236975</v>
       </c>
       <c r="G3">
-        <v>0.2112883427620957</v>
+        <v>0.3319380996810182</v>
       </c>
       <c r="H3">
-        <v>0.2142514436531329</v>
+        <v>0.5099883062903032</v>
       </c>
       <c r="I3">
-        <v>0.1939360024027046</v>
+        <v>0.4078110503486805</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5682194087905259</v>
+        <v>0.1796875341873942</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.359551436179288</v>
+        <v>0.7907674908189222</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8456117891743133</v>
+        <v>1.617240372926176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4925624424204642</v>
+        <v>0.1486719571977204</v>
       </c>
       <c r="C4">
-        <v>0.08184116697934485</v>
+        <v>0.05110423729393432</v>
       </c>
       <c r="D4">
-        <v>0.06388472620809438</v>
+        <v>0.02313097425246013</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2977704602304385</v>
+        <v>0.4880220366944883</v>
       </c>
       <c r="G4">
-        <v>0.2073181555686574</v>
+        <v>0.3328968047806384</v>
       </c>
       <c r="H4">
-        <v>0.2158056397086412</v>
+        <v>0.5124834432374357</v>
       </c>
       <c r="I4">
-        <v>0.1969220206034912</v>
+        <v>0.4106600565732208</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5260534433383555</v>
+        <v>0.1650781980004297</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.116066256843709</v>
+        <v>0.7314521782618328</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.840240389416266</v>
+        <v>1.624354930704584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4747721226215589</v>
+        <v>0.142691385190659</v>
       </c>
       <c r="C5">
-        <v>0.08047231139780564</v>
+        <v>0.05057370216109547</v>
       </c>
       <c r="D5">
-        <v>0.06161429640422966</v>
+        <v>0.02236148591545373</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2942237415457924</v>
+        <v>0.4881907578918572</v>
       </c>
       <c r="G5">
-        <v>0.2058486655432503</v>
+        <v>0.3333502497989684</v>
       </c>
       <c r="H5">
-        <v>0.2165327338550043</v>
+        <v>0.5135552225566613</v>
       </c>
       <c r="I5">
-        <v>0.1982599685245283</v>
+        <v>0.411880086947825</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5088052410469004</v>
+        <v>0.159103239128541</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.018616111495177</v>
+        <v>0.7074057747522318</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8385605434835526</v>
+        <v>1.62750047399625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4718146927616118</v>
+        <v>0.1416973374252848</v>
       </c>
       <c r="C6">
-        <v>0.08024461113657821</v>
+        <v>0.05048548644897011</v>
       </c>
       <c r="D6">
-        <v>0.06123689838199908</v>
+        <v>0.0222335258512345</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2936446178346301</v>
+        <v>0.4882236053130811</v>
       </c>
       <c r="G6">
-        <v>0.2056133538323976</v>
+        <v>0.3334293314313754</v>
       </c>
       <c r="H6">
-        <v>0.216659027210973</v>
+        <v>0.5137365125819997</v>
       </c>
       <c r="I6">
-        <v>0.1984892888229588</v>
+        <v>0.4120862359716408</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5059373240135727</v>
+        <v>0.1581098188473078</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.002532020408083</v>
+        <v>0.7034202704509482</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8383115710541631</v>
+        <v>1.628037658987367</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.492322742071309</v>
+        <v>0.1485913670825312</v>
       </c>
       <c r="C7">
-        <v>0.08182273363335923</v>
+        <v>0.0510970904534318</v>
       </c>
       <c r="D7">
-        <v>0.06385413286007946</v>
+        <v>0.02312060924362669</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2977219644103073</v>
+        <v>0.4880239882169022</v>
       </c>
       <c r="G7">
-        <v>0.2072977488073349</v>
+        <v>0.3329026661229335</v>
       </c>
       <c r="H7">
-        <v>0.2158150706205646</v>
+        <v>0.5124976749486692</v>
       </c>
       <c r="I7">
-        <v>0.1969395815158954</v>
+        <v>0.410676271374026</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5258210887909058</v>
+        <v>0.1649977040133166</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.11474527513117</v>
+        <v>0.73112738138704</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8402157088297173</v>
+        <v>1.624396355618558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5823220769914883</v>
+        <v>0.1788668782491527</v>
       </c>
       <c r="C8">
-        <v>0.0887221781462415</v>
+        <v>0.05377791364998075</v>
       </c>
       <c r="D8">
-        <v>0.0753460632686469</v>
+        <v>0.0270075304979045</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3172083540314361</v>
+        <v>0.4878456519450367</v>
       </c>
       <c r="G8">
-        <v>0.2160588329528537</v>
+        <v>0.3311299446506766</v>
       </c>
       <c r="H8">
-        <v>0.2129235839307384</v>
+        <v>0.5075136770697597</v>
       </c>
       <c r="I8">
-        <v>0.191179677744465</v>
+        <v>0.4049728691790619</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6129837357774619</v>
+        <v>0.1952017441650327</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.626428263662248</v>
+        <v>0.854506634265789</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8531615789592308</v>
+        <v>1.610490989760862</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7569024589908508</v>
+        <v>0.2376748882748245</v>
       </c>
       <c r="C9">
-        <v>0.1019520749563441</v>
+        <v>0.05896563651533882</v>
       </c>
       <c r="D9">
-        <v>0.09767419684504119</v>
+        <v>0.03452731281319643</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3615154899297437</v>
+        <v>0.4900242221083886</v>
       </c>
       <c r="G9">
-        <v>0.2386943209520425</v>
+        <v>0.3296434697274719</v>
       </c>
       <c r="H9">
-        <v>0.2105023254816842</v>
+        <v>0.4994738709967166</v>
       </c>
       <c r="I9">
-        <v>0.1841674495140921</v>
+        <v>0.395656105399361</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7816122049553229</v>
+        <v>0.2537093004579702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.716708879115274</v>
+        <v>1.100868896997525</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8968613015478155</v>
+        <v>1.591011804198246</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8838443379079592</v>
+        <v>0.2805111432793979</v>
       </c>
       <c r="C10">
-        <v>0.1114054658207522</v>
+        <v>0.06273118859385818</v>
       </c>
       <c r="D10">
-        <v>0.1139469000390392</v>
+        <v>0.03998728969700949</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3985563618714281</v>
+        <v>0.4931706225111654</v>
       </c>
       <c r="G10">
-        <v>0.25938071324844</v>
+        <v>0.3297727886631705</v>
       </c>
       <c r="H10">
-        <v>0.2109706845134127</v>
+        <v>0.4946230902951285</v>
       </c>
       <c r="I10">
-        <v>0.1820565328878452</v>
+        <v>0.3899534971503158</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9038313316519293</v>
+        <v>0.2962261824351629</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.604978776555626</v>
+        <v>1.284977513646382</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9422424045595932</v>
+        <v>1.581465171620181</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9412474521650438</v>
+        <v>0.299912599001857</v>
       </c>
       <c r="C11">
-        <v>0.1156222809128309</v>
+        <v>0.06443353700801424</v>
       </c>
       <c r="D11">
-        <v>0.121317805232863</v>
+        <v>0.04245663081995588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4165798497996391</v>
+        <v>0.4949386997504774</v>
       </c>
       <c r="G11">
-        <v>0.269861211038922</v>
+        <v>0.330098686656271</v>
       </c>
       <c r="H11">
-        <v>0.2117381137419088</v>
+        <v>0.4926454886888436</v>
       </c>
       <c r="I11">
-        <v>0.1818663188653424</v>
+        <v>0.3876081501847075</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9589772379576402</v>
+        <v>0.3154607302791135</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.038494467304417</v>
+        <v>1.369500680061122</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.96631072485674</v>
+        <v>1.578160406168067</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9629271762197504</v>
+        <v>0.3072466568520724</v>
       </c>
       <c r="C12">
-        <v>0.1172040601697404</v>
+        <v>0.06507657579464876</v>
       </c>
       <c r="D12">
-        <v>0.1241038546818345</v>
+        <v>0.04338957989031655</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4235928387566119</v>
+        <v>0.4956567145669837</v>
       </c>
       <c r="G12">
-        <v>0.2740023559756395</v>
+        <v>0.3302606407556823</v>
       </c>
       <c r="H12">
-        <v>0.2121147100411136</v>
+        <v>0.4919295462216979</v>
       </c>
       <c r="I12">
-        <v>0.1819156925035585</v>
+        <v>0.3867558785690903</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9797829993690073</v>
+        <v>0.322728460111108</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.208078416032222</v>
+        <v>1.401625741296002</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9759697884360463</v>
+        <v>1.577058525349358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9582607850690863</v>
+        <v>0.3056677179502572</v>
       </c>
       <c r="C13">
-        <v>0.1168641222680264</v>
+        <v>0.06493815842296158</v>
       </c>
       <c r="D13">
-        <v>0.1235040709368604</v>
+        <v>0.04318874863672306</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4220737731718671</v>
+        <v>0.4954999200707633</v>
       </c>
       <c r="G13">
-        <v>0.2731024911138249</v>
+        <v>0.3302240445847957</v>
       </c>
       <c r="H13">
-        <v>0.2120296709998897</v>
+        <v>0.4920822726220209</v>
       </c>
       <c r="I13">
-        <v>0.18189947263755</v>
+        <v>0.3869378342746863</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9753057526621092</v>
+        <v>0.3211639452848942</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.171291691958515</v>
+        <v>1.394701673240007</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9738643788500241</v>
+        <v>1.577289178608268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9430322682361236</v>
+        <v>0.3005162375580994</v>
       </c>
       <c r="C14">
-        <v>0.1157527366912205</v>
+        <v>0.06448647277277075</v>
       </c>
       <c r="D14">
-        <v>0.1215471229293144</v>
+        <v>0.04253342828121731</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4171529269630341</v>
+        <v>0.4949967992822337</v>
       </c>
       <c r="G14">
-        <v>0.2701983334487892</v>
+        <v>0.3301112374476034</v>
       </c>
       <c r="H14">
-        <v>0.2117673346251863</v>
+        <v>0.4925859276782631</v>
       </c>
       <c r="I14">
-        <v>0.1818678810261254</v>
+        <v>0.3875373141105491</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9606905612189394</v>
+        <v>0.3160589746726998</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.052329553876973</v>
+        <v>1.372141222702197</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9670941317820336</v>
+        <v>1.578066754642336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9336965669928077</v>
+        <v>0.2973591145443208</v>
       </c>
       <c r="C15">
-        <v>0.1150699180257959</v>
+        <v>0.06420959116542235</v>
       </c>
       <c r="D15">
-        <v>0.1203477420908428</v>
+        <v>0.04213174552744192</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4141638527040143</v>
+        <v>0.4946949387675161</v>
       </c>
       <c r="G15">
-        <v>0.2684425058541677</v>
+        <v>0.3300471634709439</v>
       </c>
       <c r="H15">
-        <v>0.2116180429876522</v>
+        <v>0.4928987196009373</v>
       </c>
       <c r="I15">
-        <v>0.1818646838528046</v>
+        <v>0.3879091853861887</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9517279169603796</v>
+        <v>0.3129299330312563</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.980208875840802</v>
+        <v>1.358337871713189</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9630198167295134</v>
+        <v>1.578562528522056</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8800853627932952</v>
+        <v>0.2792414484715096</v>
       </c>
       <c r="C16">
-        <v>0.1111279662862614</v>
+        <v>0.0626197158786681</v>
       </c>
       <c r="D16">
-        <v>0.1134645119608848</v>
+        <v>0.03982561680027175</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3974036699011805</v>
+        <v>0.4930618558525666</v>
       </c>
       <c r="G16">
-        <v>0.2587188406481218</v>
+        <v>0.3297568764931995</v>
       </c>
       <c r="H16">
-        <v>0.2109322059697973</v>
+        <v>0.4947569398102516</v>
       </c>
       <c r="I16">
-        <v>0.1820853372327633</v>
+        <v>0.390111784672019</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9002173963053224</v>
+        <v>0.2949669591178861</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.577333990457831</v>
+        <v>1.279469845473272</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9407427035389588</v>
+        <v>1.581702058912768</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8471036984179818</v>
+        <v>0.2681046324921965</v>
       </c>
       <c r="C17">
-        <v>0.1086864065310778</v>
+        <v>0.0616416043710899</v>
       </c>
       <c r="D17">
-        <v>0.109233422164678</v>
+        <v>0.0384071417484364</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3874351487502992</v>
+        <v>0.4921463056201461</v>
       </c>
       <c r="G17">
-        <v>0.2530400854777213</v>
+        <v>0.3296472968865416</v>
       </c>
       <c r="H17">
-        <v>0.2106576919375271</v>
+        <v>0.4959555583054964</v>
       </c>
       <c r="I17">
-        <v>0.1824250620170176</v>
+        <v>0.3915267904199418</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8684942954538997</v>
+        <v>0.2839194933955014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.338469388050456</v>
+        <v>1.231289372195008</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9279884814485229</v>
+        <v>1.583894135123273</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8281018267398395</v>
+        <v>0.2616910703150381</v>
       </c>
       <c r="C18">
-        <v>0.1072744410319615</v>
+        <v>0.06107802544525498</v>
       </c>
       <c r="D18">
-        <v>0.1067968830526951</v>
+        <v>0.03758991792157929</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3818106740795884</v>
+        <v>0.4916513998157868</v>
       </c>
       <c r="G18">
-        <v>0.2498732873273113</v>
+        <v>0.329609399170586</v>
       </c>
       <c r="H18">
-        <v>0.2105515642715616</v>
+        <v>0.4966665307671079</v>
       </c>
       <c r="I18">
-        <v>0.1826922261922235</v>
+        <v>0.3923640773435757</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8502063313601127</v>
+        <v>0.2775552886697028</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.203764403452737</v>
+        <v>1.203649396962902</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9209713549533944</v>
+        <v>1.585252647612421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8216628816789751</v>
+        <v>0.259518200531403</v>
       </c>
       <c r="C19">
-        <v>0.1067951394537658</v>
+        <v>0.06088703873386692</v>
       </c>
       <c r="D19">
-        <v>0.1059714241028757</v>
+        <v>0.03731298922302528</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3799245321381974</v>
+        <v>0.4914892750570132</v>
       </c>
       <c r="G19">
-        <v>0.2488176292924251</v>
+        <v>0.3296008794432552</v>
       </c>
       <c r="H19">
-        <v>0.2105243426490944</v>
+        <v>0.4969109566894616</v>
       </c>
       <c r="I19">
-        <v>0.1827947076575676</v>
+        <v>0.3926515869821792</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8440074830014623</v>
+        <v>0.2753987814827497</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.158585477961964</v>
+        <v>1.194303157062166</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9186487456505148</v>
+        <v>1.585729385746021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8506179831291547</v>
+        <v>0.2692909940091397</v>
       </c>
       <c r="C20">
-        <v>0.1089471251438425</v>
+        <v>0.06174582954912466</v>
       </c>
       <c r="D20">
-        <v>0.1096841354852671</v>
+        <v>0.03855828147187879</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.388484887902159</v>
+        <v>0.4922404868421211</v>
       </c>
       <c r="G20">
-        <v>0.2536341786429546</v>
+        <v>0.3296563600001221</v>
       </c>
       <c r="H20">
-        <v>0.2106815137866889</v>
+        <v>0.4958257320950779</v>
       </c>
       <c r="I20">
-        <v>0.1823813979762292</v>
+        <v>0.3913737368788581</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8718756603572331</v>
+        <v>0.2850965540859534</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.36361162114909</v>
+        <v>1.236410747024536</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.929312843029436</v>
+        <v>1.583650672396573</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9475068963941737</v>
+        <v>0.3020297060718633</v>
       </c>
       <c r="C21">
-        <v>0.1160796141837608</v>
+        <v>0.06461918792713561</v>
       </c>
       <c r="D21">
-        <v>0.1221220720532159</v>
+        <v>0.04272597024102254</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4185930324111737</v>
+        <v>0.4951432618099005</v>
       </c>
       <c r="G21">
-        <v>0.2710465133577813</v>
+        <v>0.3301433244647214</v>
       </c>
       <c r="H21">
-        <v>0.2118420017830545</v>
+        <v>0.4924370982332675</v>
       </c>
       <c r="I21">
-        <v>0.1818737725291015</v>
+        <v>0.3873602584425626</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9649855950816573</v>
+        <v>0.3175588670245304</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.087113299945003</v>
+        <v>1.378764514931078</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9690674705855997</v>
+        <v>1.577834300300864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.010487446340449</v>
+        <v>0.3233511408833181</v>
       </c>
       <c r="C22">
-        <v>0.1206513420167852</v>
+        <v>0.06648771126904762</v>
       </c>
       <c r="D22">
-        <v>0.1302204411120869</v>
+        <v>0.04543731197134093</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4393767615411903</v>
+        <v>0.497323011250657</v>
       </c>
       <c r="G22">
-        <v>0.2834423420713819</v>
+        <v>0.3306863103485327</v>
       </c>
       <c r="H22">
-        <v>0.2131051358679201</v>
+        <v>0.4904143835349117</v>
       </c>
       <c r="I22">
-        <v>0.1822558162711978</v>
+        <v>0.3849462791252378</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.025382022262676</v>
+        <v>0.3386814454974001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.592390823421425</v>
+        <v>1.472491975047475</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9982561565671233</v>
+        <v>1.574904864227179</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9769084080718642</v>
+        <v>0.3119785800531929</v>
       </c>
       <c r="C23">
-        <v>0.1182207874606434</v>
+        <v>0.06549132891508691</v>
       </c>
       <c r="D23">
-        <v>0.1259012634426711</v>
+        <v>0.043991380592459</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4281757283688776</v>
+        <v>0.4961337598306557</v>
       </c>
       <c r="G23">
-        <v>0.2767265562250358</v>
+        <v>0.3303758999857038</v>
       </c>
       <c r="H23">
-        <v>0.2123825212717207</v>
+        <v>0.4914763818192682</v>
       </c>
       <c r="I23">
-        <v>0.1819826404604932</v>
+        <v>0.3862155085058845</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9931940764779768</v>
+        <v>0.3274166892876451</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.319257389544916</v>
+        <v>1.422402252408247</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9823646431990483</v>
+        <v>1.576388483525392</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8490292998785662</v>
+        <v>0.2687546737408582</v>
       </c>
       <c r="C24">
-        <v>0.1088292798349642</v>
+        <v>0.06169871323240272</v>
       </c>
       <c r="D24">
-        <v>0.1094803805018216</v>
+        <v>0.03848995656687748</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3880099703257045</v>
+        <v>0.4921978095368189</v>
       </c>
       <c r="G24">
-        <v>0.2533652852528832</v>
+        <v>0.3296521843926854</v>
       </c>
       <c r="H24">
-        <v>0.2106705833772722</v>
+        <v>0.4958843584021366</v>
       </c>
       <c r="I24">
-        <v>0.1824009154719484</v>
+        <v>0.3914428583177703</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8703470999762146</v>
+        <v>0.2845644449842268</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.352236737050958</v>
+        <v>1.234095188291633</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9287131204772834</v>
+        <v>1.583760435863539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7098910371209968</v>
+        <v>0.2218287761677402</v>
       </c>
       <c r="C25">
-        <v>0.09841266335426724</v>
+        <v>0.0575700169685831</v>
       </c>
       <c r="D25">
-        <v>0.09165628968121808</v>
+        <v>0.0325042235806805</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3488018517415341</v>
+        <v>0.4891637257729826</v>
       </c>
       <c r="G25">
-        <v>0.2319162836093795</v>
+        <v>0.3298317104217077</v>
       </c>
       <c r="H25">
-        <v>0.210783436446917</v>
+        <v>0.5014633314532944</v>
       </c>
       <c r="I25">
-        <v>0.1855642285248251</v>
+        <v>0.3979761985266492</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7362629913496477</v>
+        <v>0.2379617238455296</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.409364505490586</v>
+        <v>1.033706372783854</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8828743369972472</v>
+        <v>1.595445880530576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1870330023505744</v>
+        <v>0.6065823155747978</v>
       </c>
       <c r="C2">
-        <v>0.05449972230751854</v>
+        <v>0.09057378881637845</v>
       </c>
       <c r="D2">
-        <v>0.02805384500591401</v>
+        <v>0.07844578733916308</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4879682651166917</v>
+        <v>0.3228746276109149</v>
       </c>
       <c r="G2">
-        <v>0.3307839750832429</v>
+        <v>0.2187773953985257</v>
       </c>
       <c r="H2">
-        <v>0.5062806317259856</v>
+        <v>0.2123509163717259</v>
       </c>
       <c r="I2">
-        <v>0.4035537774460813</v>
+        <v>0.1898944100252109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2033376887178946</v>
+        <v>0.6364525480048826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8882199994033897</v>
+        <v>2.769915673428045</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.607249860941465</v>
+        <v>0.8578376589995713</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1633074569750477</v>
+        <v>0.5360806673887026</v>
       </c>
       <c r="C3">
-        <v>0.05240114611671487</v>
+        <v>0.08518290519187843</v>
       </c>
       <c r="D3">
-        <v>0.02501158307260454</v>
+        <v>0.06944019265148427</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4878043474236975</v>
+        <v>0.306883891753543</v>
       </c>
       <c r="G3">
-        <v>0.3319380996810182</v>
+        <v>0.2112883427622023</v>
       </c>
       <c r="H3">
-        <v>0.5099883062903032</v>
+        <v>0.2142514436531329</v>
       </c>
       <c r="I3">
-        <v>0.4078110503486805</v>
+        <v>0.1939360024027046</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1796875341873942</v>
+        <v>0.5682194087905401</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7907674908189222</v>
+        <v>2.359551436179288</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.617240372926176</v>
+        <v>0.8456117891743276</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1486719571977204</v>
+        <v>0.4925624424203505</v>
       </c>
       <c r="C4">
-        <v>0.05110423729393432</v>
+        <v>0.08184116697906063</v>
       </c>
       <c r="D4">
-        <v>0.02313097425246013</v>
+        <v>0.06388472620832175</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4880220366944883</v>
+        <v>0.2977704602304669</v>
       </c>
       <c r="G4">
-        <v>0.3328968047806384</v>
+        <v>0.2073181555686645</v>
       </c>
       <c r="H4">
-        <v>0.5124834432374357</v>
+        <v>0.2158056397086412</v>
       </c>
       <c r="I4">
-        <v>0.4106600565732208</v>
+        <v>0.1969220206035018</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1650781980004297</v>
+        <v>0.5260534433382844</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7314521782618328</v>
+        <v>2.116066256843709</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.624354930704584</v>
+        <v>0.8402403894163228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.142691385190659</v>
+        <v>0.4747721226214736</v>
       </c>
       <c r="C5">
-        <v>0.05057370216109547</v>
+        <v>0.08047231139759248</v>
       </c>
       <c r="D5">
-        <v>0.02236148591545373</v>
+        <v>0.06161429640422256</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4881907578918572</v>
+        <v>0.2942237415458209</v>
       </c>
       <c r="G5">
-        <v>0.3333502497989684</v>
+        <v>0.2058486655432503</v>
       </c>
       <c r="H5">
-        <v>0.5135552225566613</v>
+        <v>0.2165327338549972</v>
       </c>
       <c r="I5">
-        <v>0.411880086947825</v>
+        <v>0.1982599685245354</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.159103239128541</v>
+        <v>0.5088052410468862</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7074057747522318</v>
+        <v>2.01861611149512</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.62750047399625</v>
+        <v>0.8385605434835384</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1416973374252848</v>
+        <v>0.471814692761626</v>
       </c>
       <c r="C6">
-        <v>0.05048548644897011</v>
+        <v>0.0802446111365569</v>
       </c>
       <c r="D6">
-        <v>0.0222335258512345</v>
+        <v>0.06123689838214119</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4882236053130811</v>
+        <v>0.2936446178346515</v>
       </c>
       <c r="G6">
-        <v>0.3334293314313754</v>
+        <v>0.2056133538323976</v>
       </c>
       <c r="H6">
-        <v>0.5137365125819997</v>
+        <v>0.216659027210973</v>
       </c>
       <c r="I6">
-        <v>0.4120862359716408</v>
+        <v>0.1984892888229552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1581098188473078</v>
+        <v>0.5059373240135727</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7034202704509482</v>
+        <v>2.002532020408083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.628037658987367</v>
+        <v>0.8383115710541631</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1485913670825312</v>
+        <v>0.492322742071309</v>
       </c>
       <c r="C7">
-        <v>0.0510970904534318</v>
+        <v>0.08182273363335923</v>
       </c>
       <c r="D7">
-        <v>0.02312060924362669</v>
+        <v>0.06385413286002972</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4880239882169022</v>
+        <v>0.2977219644103357</v>
       </c>
       <c r="G7">
-        <v>0.3329026661229335</v>
+        <v>0.2072977488072851</v>
       </c>
       <c r="H7">
-        <v>0.5124976749486692</v>
+        <v>0.2158150706205646</v>
       </c>
       <c r="I7">
-        <v>0.410676271374026</v>
+        <v>0.1969395815159061</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1649977040133166</v>
+        <v>0.5258210887909769</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.73112738138704</v>
+        <v>2.11474527513117</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.624396355618558</v>
+        <v>0.8402157088297599</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1788668782491527</v>
+        <v>0.582322076991602</v>
       </c>
       <c r="C8">
-        <v>0.05377791364998075</v>
+        <v>0.08872217814625571</v>
       </c>
       <c r="D8">
-        <v>0.0270075304979045</v>
+        <v>0.07534606326853321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4878456519450367</v>
+        <v>0.3172083540314361</v>
       </c>
       <c r="G8">
-        <v>0.3311299446506766</v>
+        <v>0.2160588329527755</v>
       </c>
       <c r="H8">
-        <v>0.5075136770697597</v>
+        <v>0.2129235839307455</v>
       </c>
       <c r="I8">
-        <v>0.4049728691790619</v>
+        <v>0.1911796777444508</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1952017441650327</v>
+        <v>0.6129837357774619</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.854506634265789</v>
+        <v>2.626428263662262</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.610490989760862</v>
+        <v>0.8531615789592308</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2376748882748245</v>
+        <v>0.7569024589908508</v>
       </c>
       <c r="C9">
-        <v>0.05896563651533882</v>
+        <v>0.1019520749562872</v>
       </c>
       <c r="D9">
-        <v>0.03452731281319643</v>
+        <v>0.09767419684484224</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4900242221083886</v>
+        <v>0.3615154899297224</v>
       </c>
       <c r="G9">
-        <v>0.3296434697274719</v>
+        <v>0.2386943209521064</v>
       </c>
       <c r="H9">
-        <v>0.4994738709967166</v>
+        <v>0.2105023254816842</v>
       </c>
       <c r="I9">
-        <v>0.395656105399361</v>
+        <v>0.1841674495140744</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2537093004579702</v>
+        <v>0.7816122049552376</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.100868896997525</v>
+        <v>3.716708879115245</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.591011804198246</v>
+        <v>0.8968613015478013</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2805111432793979</v>
+        <v>0.8838443379079877</v>
       </c>
       <c r="C10">
-        <v>0.06273118859385818</v>
+        <v>0.1114054658208801</v>
       </c>
       <c r="D10">
-        <v>0.03998728969700949</v>
+        <v>0.1139469000392666</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4931706225111654</v>
+        <v>0.3985563618714139</v>
       </c>
       <c r="G10">
-        <v>0.3297727886631705</v>
+        <v>0.2593807132483903</v>
       </c>
       <c r="H10">
-        <v>0.4946230902951285</v>
+        <v>0.2109706845135335</v>
       </c>
       <c r="I10">
-        <v>0.3899534971503158</v>
+        <v>0.1820565328878629</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2962261824351629</v>
+        <v>0.9038313316519009</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.284977513646382</v>
+        <v>4.604978776555654</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.581465171620181</v>
+        <v>0.9422424045595648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.299912599001857</v>
+        <v>0.9412474521650438</v>
       </c>
       <c r="C11">
-        <v>0.06443353700801424</v>
+        <v>0.1156222809130583</v>
       </c>
       <c r="D11">
-        <v>0.04245663081995588</v>
+        <v>0.1213178052327493</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4949386997504774</v>
+        <v>0.4165798497996533</v>
       </c>
       <c r="G11">
-        <v>0.330098686656271</v>
+        <v>0.269861211038922</v>
       </c>
       <c r="H11">
-        <v>0.4926454886888436</v>
+        <v>0.2117381137419088</v>
       </c>
       <c r="I11">
-        <v>0.3876081501847075</v>
+        <v>0.1818663188653531</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3154607302791135</v>
+        <v>0.9589772379576118</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.369500680061122</v>
+        <v>5.038494467304446</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.578160406168067</v>
+        <v>0.96631072485674</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3072466568520724</v>
+        <v>0.9629271762196367</v>
       </c>
       <c r="C12">
-        <v>0.06507657579464876</v>
+        <v>0.1172040601696693</v>
       </c>
       <c r="D12">
-        <v>0.04338957989031655</v>
+        <v>0.124103854681735</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4956567145669837</v>
+        <v>0.423592838756619</v>
       </c>
       <c r="G12">
-        <v>0.3302606407556823</v>
+        <v>0.2740023559757034</v>
       </c>
       <c r="H12">
-        <v>0.4919295462216979</v>
+        <v>0.2121147100411136</v>
       </c>
       <c r="I12">
-        <v>0.3867558785690903</v>
+        <v>0.1819156925035585</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.322728460111108</v>
+        <v>0.9797829993689788</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.401625741296002</v>
+        <v>5.20807841603218</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.577058525349358</v>
+        <v>0.9759697884361032</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3056677179502572</v>
+        <v>0.9582607850691716</v>
       </c>
       <c r="C13">
-        <v>0.06493815842296158</v>
+        <v>0.1168641222678133</v>
       </c>
       <c r="D13">
-        <v>0.04318874863672306</v>
+        <v>0.1235040709367183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4954999200707633</v>
+        <v>0.4220737731718813</v>
       </c>
       <c r="G13">
-        <v>0.3302240445847957</v>
+        <v>0.2731024911138036</v>
       </c>
       <c r="H13">
-        <v>0.4920822726220209</v>
+        <v>0.2120296709998897</v>
       </c>
       <c r="I13">
-        <v>0.3869378342746863</v>
+        <v>0.18189947263755</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3211639452848942</v>
+        <v>0.9753057526621092</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.394701673240007</v>
+        <v>5.17129169195853</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.577289178608268</v>
+        <v>0.9738643788499957</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3005162375580994</v>
+        <v>0.9430322682359531</v>
       </c>
       <c r="C14">
-        <v>0.06448647277277075</v>
+        <v>0.1157527366909079</v>
       </c>
       <c r="D14">
-        <v>0.04253342828121731</v>
+        <v>0.1215471229294707</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4949967992822337</v>
+        <v>0.4171529269630341</v>
       </c>
       <c r="G14">
-        <v>0.3301112374476034</v>
+        <v>0.2701983334487892</v>
       </c>
       <c r="H14">
-        <v>0.4925859276782631</v>
+        <v>0.2117673346251863</v>
       </c>
       <c r="I14">
-        <v>0.3875373141105491</v>
+        <v>0.1818678810261432</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3160589746726998</v>
+        <v>0.9606905612189109</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.372141222702197</v>
+        <v>5.052329553876973</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.578066754642336</v>
+        <v>0.9670941317820478</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2973591145443208</v>
+        <v>0.9336965669928361</v>
       </c>
       <c r="C15">
-        <v>0.06420959116542235</v>
+        <v>0.1150699180254691</v>
       </c>
       <c r="D15">
-        <v>0.04213174552744192</v>
+        <v>0.1203477420907717</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4946949387675161</v>
+        <v>0.4141638527040215</v>
       </c>
       <c r="G15">
-        <v>0.3300471634709439</v>
+        <v>0.2684425058542388</v>
       </c>
       <c r="H15">
-        <v>0.4928987196009373</v>
+        <v>0.2116180429876522</v>
       </c>
       <c r="I15">
-        <v>0.3879091853861887</v>
+        <v>0.1818646838528011</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3129299330312563</v>
+        <v>0.9517279169605501</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.358337871713189</v>
+        <v>4.980208875840816</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.578562528522056</v>
+        <v>0.9630198167295845</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2792414484715096</v>
+        <v>0.8800853627934373</v>
       </c>
       <c r="C16">
-        <v>0.0626197158786681</v>
+        <v>0.111127966286432</v>
       </c>
       <c r="D16">
-        <v>0.03982561680027175</v>
+        <v>0.1134645119608706</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4930618558525666</v>
+        <v>0.3974036699011663</v>
       </c>
       <c r="G16">
-        <v>0.3297568764931995</v>
+        <v>0.2587188406481147</v>
       </c>
       <c r="H16">
-        <v>0.4947569398102516</v>
+        <v>0.2109322059697973</v>
       </c>
       <c r="I16">
-        <v>0.390111784672019</v>
+        <v>0.1820853372327633</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2949669591178861</v>
+        <v>0.9002173963052655</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.279469845473272</v>
+        <v>4.577333990457788</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.581702058912768</v>
+        <v>0.9407427035388878</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2681046324921965</v>
+        <v>0.8471036984180955</v>
       </c>
       <c r="C17">
-        <v>0.0616416043710899</v>
+        <v>0.1086864065312483</v>
       </c>
       <c r="D17">
-        <v>0.0384071417484364</v>
+        <v>0.1092334221647917</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4921463056201461</v>
+        <v>0.3874351487502992</v>
       </c>
       <c r="G17">
-        <v>0.3296472968865416</v>
+        <v>0.253040085477636</v>
       </c>
       <c r="H17">
-        <v>0.4959555583054964</v>
+        <v>0.2106576919375271</v>
       </c>
       <c r="I17">
-        <v>0.3915267904199418</v>
+        <v>0.1824250620170105</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2839194933955014</v>
+        <v>0.8684942954538712</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.231289372195008</v>
+        <v>4.338469388050413</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.583894135123273</v>
+        <v>0.9279884814484944</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2616910703150381</v>
+        <v>0.8281018267397826</v>
       </c>
       <c r="C18">
-        <v>0.06107802544525498</v>
+        <v>0.1072744410318904</v>
       </c>
       <c r="D18">
-        <v>0.03758991792157929</v>
+        <v>0.1067968830527946</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4916513998157868</v>
+        <v>0.3818106740796168</v>
       </c>
       <c r="G18">
-        <v>0.329609399170586</v>
+        <v>0.2498732873273752</v>
       </c>
       <c r="H18">
-        <v>0.4966665307671079</v>
+        <v>0.2105515642715545</v>
       </c>
       <c r="I18">
-        <v>0.3923640773435757</v>
+        <v>0.1826922261922448</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2775552886697028</v>
+        <v>0.8502063313601269</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.203649396962902</v>
+        <v>4.203764403452737</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.585252647612421</v>
+        <v>0.9209713549534513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.259518200531403</v>
+        <v>0.8216628816788329</v>
       </c>
       <c r="C19">
-        <v>0.06088703873386692</v>
+        <v>0.1067951394537801</v>
       </c>
       <c r="D19">
-        <v>0.03731298922302528</v>
+        <v>0.1059714241027763</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4914892750570132</v>
+        <v>0.3799245321382116</v>
       </c>
       <c r="G19">
-        <v>0.3296008794432552</v>
+        <v>0.248817629292418</v>
       </c>
       <c r="H19">
-        <v>0.4969109566894616</v>
+        <v>0.2105243426490944</v>
       </c>
       <c r="I19">
-        <v>0.3926515869821792</v>
+        <v>0.1827947076575853</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2753987814827497</v>
+        <v>0.844007483001576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.194303157062166</v>
+        <v>4.158585477961964</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.585729385746021</v>
+        <v>0.9186487456505716</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2692909940091397</v>
+        <v>0.8506179831291831</v>
       </c>
       <c r="C20">
-        <v>0.06174582954912466</v>
+        <v>0.1089471251438283</v>
       </c>
       <c r="D20">
-        <v>0.03855828147187879</v>
+        <v>0.1096841354853098</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4922404868421211</v>
+        <v>0.3884848879021803</v>
       </c>
       <c r="G20">
-        <v>0.3296563600001221</v>
+        <v>0.2536341786428338</v>
       </c>
       <c r="H20">
-        <v>0.4958257320950779</v>
+        <v>0.2106815137867954</v>
       </c>
       <c r="I20">
-        <v>0.3913737368788581</v>
+        <v>0.1823813979762328</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2850965540859534</v>
+        <v>0.8718756603571762</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.236410747024536</v>
+        <v>4.363611621149104</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.583650672396573</v>
+        <v>0.9293128430293791</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3020297060718633</v>
+        <v>0.9475068963941169</v>
       </c>
       <c r="C21">
-        <v>0.06461918792713561</v>
+        <v>0.1160796141838176</v>
       </c>
       <c r="D21">
-        <v>0.04272597024102254</v>
+        <v>0.1221220720533154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4951432618099005</v>
+        <v>0.4185930324111666</v>
       </c>
       <c r="G21">
-        <v>0.3301433244647214</v>
+        <v>0.27104651335776</v>
       </c>
       <c r="H21">
-        <v>0.4924370982332675</v>
+        <v>0.2118420017830545</v>
       </c>
       <c r="I21">
-        <v>0.3873602584425626</v>
+        <v>0.1818737725291015</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3175588670245304</v>
+        <v>0.964985595081771</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.378764514931078</v>
+        <v>5.087113299945003</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.577834300300864</v>
+        <v>0.9690674705855997</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3233511408833181</v>
+        <v>1.010487446340477</v>
       </c>
       <c r="C22">
-        <v>0.06648771126904762</v>
+        <v>0.1206513420167994</v>
       </c>
       <c r="D22">
-        <v>0.04543731197134093</v>
+        <v>0.1302204411120584</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.497323011250657</v>
+        <v>0.4393767615411761</v>
       </c>
       <c r="G22">
-        <v>0.3306863103485327</v>
+        <v>0.2834423420714813</v>
       </c>
       <c r="H22">
-        <v>0.4904143835349117</v>
+        <v>0.2131051358678064</v>
       </c>
       <c r="I22">
-        <v>0.3849462791252378</v>
+        <v>0.1822558162711836</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3386814454974001</v>
+        <v>1.025382022262676</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.472491975047475</v>
+        <v>5.592390823421454</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.574904864227179</v>
+        <v>0.9982561565671233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3119785800531929</v>
+        <v>0.9769084080718926</v>
       </c>
       <c r="C23">
-        <v>0.06549132891508691</v>
+        <v>0.1182207874605723</v>
       </c>
       <c r="D23">
-        <v>0.043991380592459</v>
+        <v>0.1259012634427137</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4961337598306557</v>
+        <v>0.4281757283688776</v>
       </c>
       <c r="G23">
-        <v>0.3303758999857038</v>
+        <v>0.2767265562250145</v>
       </c>
       <c r="H23">
-        <v>0.4914763818192682</v>
+        <v>0.2123825212716071</v>
       </c>
       <c r="I23">
-        <v>0.3862155085058845</v>
+        <v>0.181982640460479</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3274166892876451</v>
+        <v>0.9931940764781189</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.422402252408247</v>
+        <v>5.319257389544887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.576388483525392</v>
+        <v>0.9823646431990483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2687546737408582</v>
+        <v>0.8490292998782536</v>
       </c>
       <c r="C24">
-        <v>0.06169871323240272</v>
+        <v>0.1088292798346657</v>
       </c>
       <c r="D24">
-        <v>0.03848995656687748</v>
+        <v>0.1094803805017648</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4921978095368189</v>
+        <v>0.3880099703256974</v>
       </c>
       <c r="G24">
-        <v>0.3296521843926854</v>
+        <v>0.2533652852528903</v>
       </c>
       <c r="H24">
-        <v>0.4958843584021366</v>
+        <v>0.2106705833771514</v>
       </c>
       <c r="I24">
-        <v>0.3914428583177703</v>
+        <v>0.1824009154719448</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2845644449842268</v>
+        <v>0.870347099976243</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.234095188291633</v>
+        <v>4.352236737050973</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.583760435863539</v>
+        <v>0.9287131204772834</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2218287761677402</v>
+        <v>0.7098910371209683</v>
       </c>
       <c r="C25">
-        <v>0.0575700169685831</v>
+        <v>0.09841266335403986</v>
       </c>
       <c r="D25">
-        <v>0.0325042235806805</v>
+        <v>0.09165628968106887</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4891637257729826</v>
+        <v>0.3488018517415199</v>
       </c>
       <c r="G25">
-        <v>0.3298317104217077</v>
+        <v>0.2319162836093867</v>
       </c>
       <c r="H25">
-        <v>0.5014633314532944</v>
+        <v>0.210783436446917</v>
       </c>
       <c r="I25">
-        <v>0.3979761985266492</v>
+        <v>0.1855642285248358</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2379617238455296</v>
+        <v>0.7362629913495482</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.033706372783854</v>
+        <v>3.409364505490586</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.595445880530576</v>
+        <v>0.8828743369972329</v>
       </c>
     </row>
   </sheetData>
